--- a/de18.xlsx
+++ b/de18.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chtie\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\chtien18.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="21-4-19" sheetId="1" r:id="rId1"/>
@@ -215,13 +215,7 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -230,7 +224,13 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -254,16 +254,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>328040</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>110867</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>204215</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129917</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -279,7 +279,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1209674" y="3771900"/>
+          <a:off x="4743449" y="3028950"/>
           <a:ext cx="7243191" cy="2625467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,256 +794,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="6">
+      <c r="D3" s="1"/>
+      <c r="E3" s="4">
         <v>43480</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6">
+      <c r="D4" s="1"/>
+      <c r="E4" s="4">
         <v>43485</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6">
+      <c r="D5" s="1"/>
+      <c r="E5" s="4">
         <v>43510</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6">
+      <c r="D6" s="1"/>
+      <c r="E6" s="4">
         <v>43603</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6">
+      <c r="D7" s="1"/>
+      <c r="E7" s="4">
         <v>43679</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>50</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6">
+      <c r="D8" s="1"/>
+      <c r="E8" s="4">
         <v>43480</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>15</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6">
+      <c r="D9" s="1"/>
+      <c r="E9" s="4">
         <v>43481</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>20</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6">
+      <c r="D10" s="1"/>
+      <c r="E10" s="4">
         <v>43607</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6">
+      <c r="D11" s="1"/>
+      <c r="E11" s="4">
         <v>43477</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>30</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6">
+      <c r="D12" s="1"/>
+      <c r="E12" s="4">
         <v>43794</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>12</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1054,90 +1054,106 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="H16" s="5" t="s">
+      <c r="E16" s="6"/>
+      <c r="H16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1300</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1100</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="1">
+        <v>900</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1100</v>
+      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="1">
+        <v>500</v>
+      </c>
+      <c r="E21" s="1">
+        <v>550</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1156,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,220 +1187,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6">
+      <c r="C3" s="1"/>
+      <c r="D3" s="4">
         <v>43480</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6">
+      <c r="C4" s="1"/>
+      <c r="D4" s="4">
         <v>43485</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6">
+      <c r="C5" s="1"/>
+      <c r="D5" s="4">
         <v>43510</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>7</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6">
+      <c r="C6" s="1"/>
+      <c r="D6" s="4">
         <v>43603</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>20</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6">
+      <c r="C7" s="1"/>
+      <c r="D7" s="4">
         <v>43679</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>50</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6">
+      <c r="C8" s="1"/>
+      <c r="D8" s="4">
         <v>43480</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>15</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6">
+      <c r="C9" s="1"/>
+      <c r="D9" s="4">
         <v>43481</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>20</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6">
+      <c r="C10" s="1"/>
+      <c r="D10" s="4">
         <v>43607</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6">
+      <c r="C11" s="1"/>
+      <c r="D11" s="4">
         <v>43477</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>30</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6">
+      <c r="C12" s="1"/>
+      <c r="D12" s="4">
         <v>43794</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>12</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1395,118 +1411,134 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="G16" s="5" t="s">
+      <c r="D16" s="6"/>
+      <c r="G16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1300</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1100</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="G20" s="7" t="s">
+      <c r="C20" s="1">
+        <v>900</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="C21" s="1">
+        <v>500</v>
+      </c>
+      <c r="D21" s="1">
+        <v>550</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
